--- a/56-annexes--retravailler-le-code-source-pour-simplifier-la-maintenance/ig/ValueSet-type-document-reference-esms-valueset.xlsx
+++ b/56-annexes--retravailler-le-code-source-pour-simplifier-la-maintenance/ig/ValueSet-type-document-reference-esms-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-03T14:03:37+00:00</t>
+    <t>2024-12-03T15:59:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/56-annexes--retravailler-le-code-source-pour-simplifier-la-maintenance/ig/ValueSet-type-document-reference-esms-valueset.xlsx
+++ b/56-annexes--retravailler-le-code-source-pour-simplifier-la-maintenance/ig/ValueSet-type-document-reference-esms-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-03T15:59:47+00:00</t>
+    <t>2024-12-04T07:47:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/56-annexes--retravailler-le-code-source-pour-simplifier-la-maintenance/ig/ValueSet-type-document-reference-esms-valueset.xlsx
+++ b/56-annexes--retravailler-le-code-source-pour-simplifier-la-maintenance/ig/ValueSet-type-document-reference-esms-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-04T07:47:13+00:00</t>
+    <t>2024-12-12T14:30:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
